--- a/Data Structure/Sorting Algorithms/Sorting.xlsx
+++ b/Data Structure/Sorting Algorithms/Sorting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhamrathod/Documents/Study Material/DS/DataStructure-And-Algorithm/Data Structure/Sorting Algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9353B02D-7FE5-1D4D-92E6-9286D40629FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970EEC38-B403-ED44-94FD-F963F5F2CBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4E42177B-4881-CA45-8674-08098C02AC7A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Number</t>
   </si>
@@ -162,12 +162,244 @@
       <t xml:space="preserve"> of j element with j-1 element.</t>
     </r>
   </si>
+  <si>
+    <t>QUICK SORT</t>
+  </si>
+  <si>
+    <t>Selection Sort</t>
+  </si>
+  <si>
+    <t>Three Number Sort</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Put the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>pivot</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> in its right place first.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Then sort the elements on the left and right.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Trick</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:
+To make the algorithm run faster. Sort the smallest sub array first</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Look for the minimun element in an array.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+And swap that element with the first element.</t>
+    </r>
+  </si>
+  <si>
+    <t>Radix Sort</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Start by sorting the digit place of each element.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Approach</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">:
+ - Sort the unit place first.
+ - Sort the 10's place.
+ - Sort 100 and 1000 and so on.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Main Logic of Radix Sort:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+# </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>count the number of time each digit appeared in digit place(unit, 10, 100 etc)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+	for num in array:
+		idx = (num // digitPlace) % 10 #extract the digit 
+		# go to that idx and increase count by one
+		countArray[idx] +=  1
+	#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> add the count in count array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+	for i in range(1,10):
+		countArray[i] += countArray[i-1]
+         # </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Add elements to sorted array at its right place</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+	for i in reversed(range(len(array))):
+		idx = (array[i]//digitPlace) % 10
+		countArray[idx] -= 1
+		sortedIdx = countArray[idx]
+		sortedArray[sortedIdx] = array[i]</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -214,6 +446,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -247,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -265,6 +504,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -274,8 +516,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,9 +835,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4A21D9-BFC5-D744-9210-5766C92121CA}">
   <dimension ref="A1:C314"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -606,28 +848,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -662,30 +904,52 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+    <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="122" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="266" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="279" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
@@ -2198,9 +2462,10 @@
       <c r="C314" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="A4:C4"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Structure/Sorting Algorithms/Sorting.xlsx
+++ b/Data Structure/Sorting Algorithms/Sorting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhamrathod/Documents/Study Material/DS/DataStructure-And-Algorithm/Data Structure/Sorting Algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970EEC38-B403-ED44-94FD-F963F5F2CBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF8DC0B-C799-5546-A79F-2FF2B2C5815A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4E42177B-4881-CA45-8674-08098C02AC7A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Number</t>
   </si>
@@ -264,11 +264,32 @@
       <rPr>
         <b/>
         <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Start by sorting the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
         <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Start by sorting the digit place of each element.</t>
+      <t>digit place</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (unit, 10, 100 etc) of each element.
+</t>
     </r>
     <r>
       <rPr>
@@ -321,78 +342,33 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">
-# </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>count the number of time each digit appeared in digit place(unit, 10, 100 etc)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
+# count the number of time each digit appeared in digit place(unit, 10, 100 etc)
 	for num in array:
 		idx = (num // digitPlace) % 10 #extract the digit 
 		# go to that idx and increase count by one
 		countArray[idx] +=  1
-	#</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> add the count in count array</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
+	# add the count in count array
 	for i in range(1,10):
 		countArray[i] += countArray[i-1]
-         # </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Add elements to sorted array at its right place</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
+         # Add elements to sorted array at its right place
 	for i in reversed(range(len(array))):
 		idx = (array[i]//digitPlace) % 10
 		countArray[idx] -= 1
 		sortedIdx = countArray[idx]
 		sortedArray[sortedIdx] = array[i]</t>
     </r>
+  </si>
+  <si>
+    <t>Merge Sort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keep Dividing the array into smaller and smaller sub array until there is only one element left in the array.
+The start sorting the array and merge them back together.
+Approach One:
+Divivde the array into left and right.
+Sort the array and then place the sorted array into it.
+Approach Two:
+</t>
   </si>
 </sst>
 </file>
@@ -486,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -518,6 +494,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -833,11 +815,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4A21D9-BFC5-D744-9210-5766C92121CA}">
-  <dimension ref="A1:C314"/>
+  <dimension ref="A1:D314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11:C12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -847,31 +829,31 @@
     <col min="3" max="3" width="203" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:3" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" s="2" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
     </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -882,7 +864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="3" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" s="3" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -893,7 +875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -904,7 +886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -915,7 +897,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="122" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="122" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -924,7 +906,7 @@
       </c>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:3" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -935,38 +917,47 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="266" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+    <row r="11" spans="1:4" ht="266" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
         <v>6</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="279" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+    <row r="12" spans="1:4" ht="279" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="11"/>
     </row>
-    <row r="13" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" s="13" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
+        <v>7</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" s="13" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" s="13" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" ht="20" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -2462,10 +2453,15 @@
       <c r="C314" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Structure/Sorting Algorithms/Sorting.xlsx
+++ b/Data Structure/Sorting Algorithms/Sorting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhamrathod/Documents/Study Material/DS/DataStructure-And-Algorithm/Data Structure/Sorting Algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF8DC0B-C799-5546-A79F-2FF2B2C5815A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EA4D8C-4C18-AB4A-BBBF-5B4EC3048726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4E42177B-4881-CA45-8674-08098C02AC7A}"/>
   </bookViews>
@@ -362,13 +362,72 @@
     <t>Merge Sort</t>
   </si>
   <si>
-    <t xml:space="preserve">keep Dividing the array into smaller and smaller sub array until there is only one element left in the array.
-The start sorting the array and merge them back together.
-Approach One:
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>keep Dividing the array into smaller and smaller sub array until there is only one element left in the array.
+The start sorting the array and merge them back together.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Approach One:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
 Divivde the array into left and right.
 Sort the array and then place the sorted array into it.
-Approach Two:
 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Approach Two</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:
+Create a copy of main array.
+Then Divide the copy copy of array.
+Compary the element sof the copy array
+swap the elements in the main array.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -480,6 +539,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -497,9 +559,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -817,9 +876,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4A21D9-BFC5-D744-9210-5766C92121CA}">
   <dimension ref="A1:D314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13:C15"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -830,28 +889,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:4" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -918,43 +977,43 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="266" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
+      <c r="A11" s="13">
         <v>6</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="279" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="11"/>
-    </row>
-    <row r="13" spans="1:4" s="13" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" spans="1:4" s="7" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
         <v>7</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" s="13" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+    <row r="14" spans="1:4" s="7" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" s="13" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
+    <row r="15" spans="1:4" s="7" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" ht="20" x14ac:dyDescent="0.2">
@@ -2454,14 +2513,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Structure/Sorting Algorithms/Sorting.xlsx
+++ b/Data Structure/Sorting Algorithms/Sorting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhamrathod/Documents/Study Material/DS/DataStructure-And-Algorithm/Data Structure/Sorting Algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EA4D8C-4C18-AB4A-BBBF-5B4EC3048726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B61E96-4387-D64F-8527-2AB4A3EDF56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4E42177B-4881-CA45-8674-08098C02AC7A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Number</t>
   </si>
@@ -422,12 +422,55 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>:
+      <t xml:space="preserve">:
 Create a copy of main array.
 Then Divide the copy copy of array.
 Compary the element sof the copy array
-swap the elements in the main array.</t>
-    </r>
+swap the elements in the main array.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Approach Three</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">:
+Inplace. --&gt; Most effecient one and logic can be used along with others as well.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>start = 0
+End = len(array)
+LeftArray = (start,mid,array)
+RightArray = (mid,end,array)</t>
+    </r>
+  </si>
+  <si>
+    <t>Count Inversion</t>
+  </si>
+  <si>
+    <t>We use approach 3 of mere sort:
+When ever a right array is getting swapped with left array. We subtract the position of right array to left array.
+Inversion = mid - i</t>
   </si>
 </sst>
 </file>
@@ -521,7 +564,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -535,6 +578,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -876,9 +922,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4A21D9-BFC5-D744-9210-5766C92121CA}">
   <dimension ref="A1:D314"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13:A15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -889,28 +935,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:4" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -977,49 +1023,55 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="266" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
+      <c r="A11" s="14">
         <v>6</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="279" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="12"/>
-    </row>
-    <row r="13" spans="1:4" s="7" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="13"/>
+    </row>
+    <row r="13" spans="1:4" s="8" customFormat="1" ht="200" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
         <v>7</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" s="7" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
+    <row r="14" spans="1:4" s="8" customFormat="1" ht="134" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" s="7" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
+    <row r="15" spans="1:4" s="8" customFormat="1" ht="157" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+    <row r="16" spans="1:4" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>8</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
